--- a/security_past/進捗管理.xlsx
+++ b/security_past/進捗管理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Desktop\security_past\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshinsh\Documents\python project\personal-trials\security_specialist\security_past\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396276F1-8226-4655-92A5-A5D620F3875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA20AA3A-DDE1-4177-BF35-8668F69F75D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14856" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度実績" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>年度</t>
     <rPh sb="0" eb="2">
@@ -78,6 +78,16 @@
   </si>
   <si>
     <t>https://www.sc-siken.com/sckakomon.php</t>
+  </si>
+  <si>
+    <t>季節</t>
+    <rPh sb="0" eb="2">
+      <t>キセツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋</t>
   </si>
 </sst>
 </file>
@@ -432,225 +442,205 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1"/>
-      <c r="B1" s="3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3">
+      <c r="E1" s="3"/>
+      <c r="F1" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B3" s="1">
-        <v>72</v>
+        <v>2010</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3" s="1">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="D3" s="1">
-        <v>57</v>
-      </c>
-      <c r="E3" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E3" s="1">
+        <v>58</v>
+      </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <f>A3+1</f>
-        <v>2013</v>
-      </c>
-      <c r="B4" s="1">
-        <v>80</v>
-      </c>
-      <c r="C4" s="1">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1">
-        <v>72</v>
-      </c>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <f t="shared" ref="A5:A15" si="0">A4+1</f>
-        <v>2014</v>
-      </c>
-      <c r="B5" s="1">
-        <v>68</v>
-      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>2015</v>
-      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>2016</v>
-      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>2017</v>
-      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>2018</v>
-      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>2019</v>
-      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1">
-        <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1">
-        <f t="shared" si="0"/>
-        <v>2021</v>
-      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1">
-        <f t="shared" si="0"/>
-        <v>2022</v>
-      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1">
-        <f t="shared" si="0"/>
-        <v>2023</v>
-      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1">
-        <f t="shared" si="0"/>
-        <v>2024</v>
-      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:B15" xr:uid="{6796B8B8-9CF3-4736-B8CE-C6BB23EE9E88}">
+      <formula1>"春,秋"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -659,11 +649,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E751920-91DD-4275-8CD4-06BAF10453F1}">
   <dimension ref="B2:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="2" spans="2:3">
       <c r="B2" t="s">
